--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2011 (P11).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2011 (P11).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,147 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brave the Elements</t>
+          <t>('Brave the Elements', ['{W}', 'Instant', 'Choose a color. White creatures you control gain protection from the chosen color until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{W}</t>
+          <t>('Day of Judgment', ['{2}{W}{W}', 'Sorcery', 'Destroy all creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Doom Blade', ['{1}{B}', 'Instant', 'Destroy target nonblack creature.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Choose a color. White creatures you control gain protection from the chosen color until end of turn.</t>
+          <t>('Searing Blaze', ['{R}{R}', 'Instant', 'Searing Blaze deals 1 damage to target player or planeswalker and 1 damage to target creature that player or that planeswalker’s controller controls.', 'Landfall — If you had a land enter the battlefield under your control this turn, Searing Blaze deals 3 damage to that player or planeswalker and 3 damage to that creature instead.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Day of Judgment</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Destroy all creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Doom Blade</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Destroy target nonblack creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Searing Blaze</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Searing Blaze deals 1 damage to target player or planeswalker and 1 damage to target creature that player or that planeswalker’s controller controls.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Landfall — If you had a land enter the battlefield under your control this turn, Searing Blaze deals 3 damage to that player or planeswalker and 3 damage to that creature instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Treasure Hunt</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Reveal cards from the top of your library until you reveal a nonland card, then put all cards revealed this way into your hand.</t>
+          <t>('Treasure Hunt', ['{1}{U}', 'Sorcery', 'Reveal cards from the top of your library until you reveal a nonland card, then put all cards revealed this way into your hand.'])</t>
         </is>
       </c>
     </row>
